--- a/Oric Match3/Font2.xlsx
+++ b/Oric Match3/Font2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\osdk_1_12\0- Projets\Oric\Oric Match3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2009B6EF-458B-418C-817E-C48FD17CAEC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB64FB4-C8C4-46EB-B0D5-34C688FF3473}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{57011A31-277C-4483-A20A-2E484002B2FD}"/>
   </bookViews>
@@ -25,9 +25,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="36">
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -71,15 +176,112 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -561,7 +763,7 @@
   <dimension ref="A1:XFD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC11" sqref="BC11"/>
+      <selection activeCell="CE37" sqref="CE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,31 +774,31 @@
   <sheetData>
     <row r="1" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AP1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BD1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BK1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BR1" t="s">
         <v>0</v>
@@ -2069,15 +2271,33 @@
       <c r="BR9" t="s">
         <v>0</v>
       </c>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
+      <c r="BT9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="CC9" s="1"/>
     </row>
     <row r="10" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -2094,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2109,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -2130,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -2145,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="AP10" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AR10">
         <v>1</v>
@@ -2160,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="AW10" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2181,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="BD10" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BF10">
         <v>1</v>
@@ -2196,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="BK10" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BR10" t="s">
         <v>0</v>
@@ -2459,14 +2679,8 @@
       <c r="AG12">
         <v>1</v>
       </c>
-      <c r="AH12">
-        <v>1</v>
-      </c>
       <c r="AI12" t="s">
         <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>1</v>
       </c>
       <c r="AK12">
         <v>1</v>
@@ -2549,11 +2763,11 @@
       </c>
       <c r="BX12">
         <f t="shared" si="14"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BY12">
         <f t="shared" si="15"/>
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="BZ12">
         <f t="shared" si="16"/>
@@ -3617,15 +3831,33 @@
       <c r="BR18" t="s">
         <v>0</v>
       </c>
-      <c r="BT18" s="1"/>
-      <c r="BU18" s="1"/>
-      <c r="BV18" s="1"/>
-      <c r="BW18" s="1"/>
-      <c r="BX18" s="1"/>
-      <c r="BY18" s="1"/>
-      <c r="BZ18" s="1"/>
-      <c r="CA18" s="1"/>
-      <c r="CB18" s="1"/>
+      <c r="BT18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BU18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BW18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="CA18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="CB18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="CC18" s="1"/>
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.25">
@@ -3642,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3657,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -3672,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB19" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK19">
         <v>1</v>
@@ -3693,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AU19">
         <v>1</v>
@@ -3702,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="AW19" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AX19">
         <v>1</v>
@@ -3716,8 +3948,8 @@
       <c r="BC19">
         <v>1</v>
       </c>
-      <c r="BD19" t="s">
-        <v>0</v>
+      <c r="BD19" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -3732,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="BT19">
-        <f>F19+E19*2+D19*4+C19*8+B19*16+A19*32</f>
+        <f t="shared" ref="BT19:BT26" si="20">F19+E19*2+D19*4+C19*8+B19*16+A19*32</f>
         <v>30</v>
       </c>
       <c r="BU19">
-        <f>M19+L19*2+K19*4+J19*8+I19*16+H19*32</f>
+        <f t="shared" ref="BU19:BU26" si="21">M19+L19*2+K19*4+J19*8+I19*16+H19*32</f>
         <v>30</v>
       </c>
       <c r="BV19">
@@ -3748,11 +3980,11 @@
         <v>0</v>
       </c>
       <c r="BX19">
-        <f>AH19+AG19*2+AF19*4+AE19*8+AD19*16+AC19*32</f>
+        <f t="shared" ref="BX19:BX26" si="22">AH19+AG19*2+AF19*4+AE19*8+AD19*16+AC19*32</f>
         <v>0</v>
       </c>
       <c r="BY19">
-        <f>AO19+AN19*2+AM19*4+AL19*8+AK19*16+AJ19*32</f>
+        <f t="shared" ref="BY19:BY26" si="23">AO19+AN19*2+AM19*4+AL19*8+AK19*16+AJ19*32</f>
         <v>30</v>
       </c>
       <c r="BZ19">
@@ -3906,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="BT20">
-        <f>F20+E20*2+D20*4+C20*8+B20*16+A20*32</f>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="BU20">
-        <f>M20+L20*2+K20*4+J20*8+I20*16+H20*32</f>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="BV20">
-        <f t="shared" ref="BV20:BV26" si="20">T20+S20*2+R20*4+Q20*8+P20*16+O20*32</f>
+        <f t="shared" ref="BV20:BV26" si="24">T20+S20*2+R20*4+Q20*8+P20*16+O20*32</f>
         <v>30</v>
       </c>
       <c r="BW20">
-        <f t="shared" ref="BW20:BW26" si="21">AA20+Z20*2+Y20*4+X20*8+W20*16+V20*32</f>
+        <f t="shared" ref="BW20:BW26" si="25">AA20+Z20*2+Y20*4+X20*8+W20*16+V20*32</f>
         <v>30</v>
       </c>
       <c r="BX20">
-        <f>AH20+AG20*2+AF20*4+AE20*8+AD20*16+AC20*32</f>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="BY20">
-        <f>AO20+AN20*2+AM20*4+AL20*8+AK20*16+AJ20*32</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="BZ20">
-        <f t="shared" ref="BZ20:BZ26" si="22">AV20+AU20*2+AT20*4+AS20*8+AR20*16+AQ20*32</f>
+        <f t="shared" ref="BZ20:BZ26" si="26">AV20+AU20*2+AT20*4+AS20*8+AR20*16+AQ20*32</f>
         <v>3</v>
       </c>
       <c r="CA20">
-        <f t="shared" ref="CA20:CA26" si="23">BC20+BB20*2+BA20*4+AZ20*8+AY20*16+AX20*32</f>
+        <f t="shared" ref="CA20:CA26" si="27">BC20+BB20*2+BA20*4+AZ20*8+AY20*16+AX20*32</f>
         <v>45</v>
       </c>
       <c r="CB20">
-        <f t="shared" ref="CB20:CB26" si="24">BJ20+BI20*2+BH20*4+BG20*8+BF20*16+BE20*32</f>
+        <f t="shared" ref="CB20:CB26" si="28">BJ20+BI20*2+BH20*4+BG20*8+BF20*16+BE20*32</f>
         <v>48</v>
       </c>
       <c r="CC20">
-        <f t="shared" ref="CC20:CC26" si="25">BQ20+BP20*2+BO20*4+BN20*8+BM20*16+BL20*32</f>
+        <f t="shared" ref="CC20:CC26" si="29">BQ20+BP20*2+BO20*4+BN20*8+BM20*16+BL20*32</f>
         <v>0</v>
       </c>
     </row>
@@ -4028,9 +4260,6 @@
       <c r="AI21" t="s">
         <v>0</v>
       </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
       <c r="AK21">
         <v>1</v>
       </c>
@@ -4043,9 +4272,6 @@
       <c r="AN21">
         <v>1</v>
       </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
       <c r="AP21" t="s">
         <v>0</v>
       </c>
@@ -4086,43 +4312,43 @@
         <v>0</v>
       </c>
       <c r="BT21">
-        <f>F21+E21*2+D21*4+C21*8+B21*16+A21*32</f>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="BU21">
-        <f>M21+L21*2+K21*4+J21*8+I21*16+H21*32</f>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="BV21">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="BW21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="BX21">
-        <f>AH21+AG21*2+AF21*4+AE21*8+AD21*16+AC21*32</f>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="BY21">
-        <f>AO21+AN21*2+AM21*4+AL21*8+AK21*16+AJ21*32</f>
-        <v>63</v>
+        <f t="shared" si="23"/>
+        <v>30</v>
       </c>
       <c r="BZ21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="CA21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="CB21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>48</v>
       </c>
       <c r="CC21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4260,43 +4486,43 @@
         <v>0</v>
       </c>
       <c r="BT22">
-        <f>F22+E22*2+D22*4+C22*8+B22*16+A22*32</f>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="BU22">
-        <f>M22+L22*2+K22*4+J22*8+I22*16+H22*32</f>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="BV22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="BW22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="BX22">
-        <f>AH22+AG22*2+AF22*4+AE22*8+AD22*16+AC22*32</f>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="BY22">
-        <f>AO22+AN22*2+AM22*4+AL22*8+AK22*16+AJ22*32</f>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="BZ22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="CA22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="CB22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="CC22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4434,43 +4660,43 @@
         <v>0</v>
       </c>
       <c r="BT23">
-        <f>F23+E23*2+D23*4+C23*8+B23*16+A23*32</f>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="BU23">
-        <f>M23+L23*2+K23*4+J23*8+I23*16+H23*32</f>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="BV23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="BW23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="BX23">
-        <f>AH23+AG23*2+AF23*4+AE23*8+AD23*16+AC23*32</f>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="BY23">
-        <f>AO23+AN23*2+AM23*4+AL23*8+AK23*16+AJ23*32</f>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="BZ23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="CA23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="CB23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="CC23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4602,43 +4828,43 @@
         <v>0</v>
       </c>
       <c r="BT24">
-        <f>F24+E24*2+D24*4+C24*8+B24*16+A24*32</f>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="BU24">
-        <f>M24+L24*2+K24*4+J24*8+I24*16+H24*32</f>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="BV24">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="BW24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="BX24">
-        <f>AH24+AG24*2+AF24*4+AE24*8+AD24*16+AC24*32</f>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="BY24">
-        <f>AO24+AN24*2+AM24*4+AL24*8+AK24*16+AJ24*32</f>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="BZ24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="CA24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="CB24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>32</v>
       </c>
       <c r="CC24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4770,43 +4996,43 @@
         <v>0</v>
       </c>
       <c r="BT25">
-        <f>F25+E25*2+D25*4+C25*8+B25*16+A25*32</f>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
       <c r="BU25">
-        <f>M25+L25*2+K25*4+J25*8+I25*16+H25*32</f>
+        <f t="shared" si="21"/>
         <v>62</v>
       </c>
       <c r="BV25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="BW25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="BX25">
-        <f>AH25+AG25*2+AF25*4+AE25*8+AD25*16+AC25*32</f>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="BY25">
-        <f>AO25+AN25*2+AM25*4+AL25*8+AK25*16+AJ25*32</f>
+        <f t="shared" si="23"/>
         <v>63</v>
       </c>
       <c r="BZ25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>45</v>
       </c>
       <c r="CB25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CC25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4908,43 +5134,43 @@
         <v>0</v>
       </c>
       <c r="BT26">
-        <f>F26+E26*2+D26*4+C26*8+B26*16+A26*32</f>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
       <c r="BU26">
-        <f>M26+L26*2+K26*4+J26*8+I26*16+H26*32</f>
+        <f t="shared" si="21"/>
         <v>62</v>
       </c>
       <c r="BV26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BW26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
       <c r="BX26">
-        <f>AH26+AG26*2+AF26*4+AE26*8+AD26*16+AC26*32</f>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="BY26">
-        <f>AO26+AN26*2+AM26*4+AL26*8+AK26*16+AJ26*32</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="BZ26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="CA26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>51</v>
       </c>
       <c r="CB26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="CC26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -5159,16 +5385,34 @@
       <c r="BR27" t="s">
         <v>0</v>
       </c>
-      <c r="BT27" s="1"/>
-      <c r="BU27" s="1"/>
-      <c r="BV27" s="1"/>
-      <c r="BW27" s="1"/>
-      <c r="BX27" s="1"/>
-      <c r="BY27" s="1"/>
-      <c r="BZ27" s="1"/>
-      <c r="CA27" s="1"/>
-      <c r="CB27" s="1"/>
-      <c r="CC27" s="1"/>
+      <c r="BT27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="BV27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BY27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BZ27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="CA27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="CC27" s="2"/>
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="B28">
@@ -5186,8 +5430,8 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>0</v>
+      <c r="G28" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -5204,11 +5448,11 @@
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="N28" t="s">
-        <v>0</v>
-      </c>
-      <c r="U28" t="s">
-        <v>0</v>
+      <c r="N28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -5222,35 +5466,35 @@
       <c r="Z28">
         <v>1</v>
       </c>
-      <c r="AB28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>1</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>1</v>
-      </c>
-      <c r="AH28">
-        <v>1</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>0</v>
+      <c r="AB28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>1</v>
+      </c>
+      <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <v>1</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="AX28">
         <v>1</v>
@@ -5264,8 +5508,8 @@
       <c r="BC28">
         <v>1</v>
       </c>
-      <c r="BD28" t="s">
-        <v>0</v>
+      <c r="BD28" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="BK28" t="s">
         <v>0</v>
@@ -5274,11 +5518,11 @@
         <v>0</v>
       </c>
       <c r="BT28">
-        <f>F28+E28*2+D28*4+C28*8+B28*16+A28*32</f>
+        <f t="shared" ref="BT28:BT35" si="30">F28+E28*2+D28*4+C28*8+B28*16+A28*32</f>
         <v>31</v>
       </c>
       <c r="BU28">
-        <f>M28+L28*2+K28*4+J28*8+I28*16+H28*32</f>
+        <f t="shared" ref="BU28:BU35" si="31">M28+L28*2+K28*4+J28*8+I28*16+H28*32</f>
         <v>62</v>
       </c>
       <c r="BV28">
@@ -5291,15 +5535,15 @@
       </c>
       <c r="BX28">
         <f>AH28+AG28*2+AF28*4+AE28*8+AD28*16+AC28*32</f>
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="BY28">
-        <f>AO28+AN28*2+AM28*4+AL28*8+AK28*16+AJ28*32</f>
+        <f t="shared" ref="BY28:BY35" si="32">AO28+AN28*2+AM28*4+AL28*8+AK28*16+AJ28*32</f>
         <v>0</v>
       </c>
       <c r="BZ28">
         <f>AV28+AU28*2+AT28*4+AS28*8+AR28*16+AQ28*32</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="CA28">
         <f>BC28+BB28*2+BA28*4+AZ28*8+AY28*16+AX28*32</f>
@@ -5387,30 +5631,30 @@
       <c r="AB29" t="s">
         <v>0</v>
       </c>
-      <c r="AC29">
-        <v>1</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
       <c r="AI29" t="s">
         <v>0</v>
       </c>
       <c r="AP29" t="s">
         <v>0</v>
       </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
+      <c r="AS29">
+        <v>1</v>
+      </c>
+      <c r="AT29">
+        <v>1</v>
+      </c>
+      <c r="AU29">
+        <v>1</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
       <c r="AW29" t="s">
         <v>0</v>
       </c>
@@ -5430,43 +5674,43 @@
         <v>0</v>
       </c>
       <c r="BT29">
-        <f>F29+E29*2+D29*4+C29*8+B29*16+A29*32</f>
+        <f t="shared" si="30"/>
         <v>31</v>
       </c>
       <c r="BU29">
-        <f>M29+L29*2+K29*4+J29*8+I29*16+H29*32</f>
+        <f t="shared" si="31"/>
         <v>62</v>
       </c>
       <c r="BV29">
-        <f t="shared" ref="BV29:BV35" si="26">T29+S29*2+R29*4+Q29*8+P29*16+O29*32</f>
+        <f t="shared" ref="BV29:BV35" si="33">T29+S29*2+R29*4+Q29*8+P29*16+O29*32</f>
         <v>63</v>
       </c>
       <c r="BW29">
-        <f t="shared" ref="BW29:BW35" si="27">AA29+Z29*2+Y29*4+X29*8+W29*16+V29*32</f>
+        <f t="shared" ref="BW29:BW35" si="34">AA29+Z29*2+Y29*4+X29*8+W29*16+V29*32</f>
         <v>30</v>
       </c>
       <c r="BX29">
         <f>AH29+AG29*2+AF29*4+AE29*8+AD29*16+AC29*32</f>
+        <v>0</v>
+      </c>
+      <c r="BY29">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BZ29">
+        <f>AV29+AU29*2+AT29*4+AS29*8+AR29*16+AQ29*32</f>
         <v>63</v>
       </c>
-      <c r="BY29">
-        <f>AO29+AN29*2+AM29*4+AL29*8+AK29*16+AJ29*32</f>
-        <v>0</v>
-      </c>
-      <c r="BZ29">
-        <f t="shared" ref="BZ29:BZ35" si="28">AV29+AU29*2+AT29*4+AS29*8+AR29*16+AQ29*32</f>
-        <v>0</v>
-      </c>
       <c r="CA29">
-        <f t="shared" ref="CA29:CA35" si="29">BC29+BB29*2+BA29*4+AZ29*8+AY29*16+AX29*32</f>
+        <f t="shared" ref="CA29:CA35" si="35">BC29+BB29*2+BA29*4+AZ29*8+AY29*16+AX29*32</f>
         <v>18</v>
       </c>
       <c r="CB29">
-        <f t="shared" ref="CB29:CB35" si="30">BJ29+BI29*2+BH29*4+BG29*8+BF29*16+BE29*32</f>
+        <f t="shared" ref="CB29:CB35" si="36">BJ29+BI29*2+BH29*4+BG29*8+BF29*16+BE29*32</f>
         <v>0</v>
       </c>
       <c r="CC29">
-        <f t="shared" ref="CC29:CC35" si="31">BQ29+BP29*2+BO29*4+BN29*8+BM29*16+BL29*32</f>
+        <f>BQ29+BP29*2+BO29*4+BN29*8+BM29*16+BL29*32</f>
         <v>0</v>
       </c>
     </row>
@@ -5562,19 +5806,19 @@
         <v>0</v>
       </c>
       <c r="BT30">
-        <f>F30+E30*2+D30*4+C30*8+B30*16+A30*32</f>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="BU30">
-        <f>M30+L30*2+K30*4+J30*8+I30*16+H30*32</f>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="BV30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>63</v>
       </c>
       <c r="BW30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="BX30">
@@ -5582,23 +5826,23 @@
         <v>0</v>
       </c>
       <c r="BY30">
-        <f>AO30+AN30*2+AM30*4+AL30*8+AK30*16+AJ30*32</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BZ30">
-        <f t="shared" si="28"/>
+        <f>AV30+AU30*2+AT30*4+AS30*8+AR30*16+AQ30*32</f>
         <v>0</v>
       </c>
       <c r="CA30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>18</v>
       </c>
       <c r="CB30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CC30">
-        <f t="shared" si="31"/>
+        <f>BQ30+BP30*2+BO30*4+BN30*8+BM30*16+BL30*32</f>
         <v>0</v>
       </c>
     </row>
@@ -5669,6 +5913,24 @@
       <c r="AB31" t="s">
         <v>0</v>
       </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
       <c r="AI31" t="s">
         <v>0</v>
       </c>
@@ -5694,43 +5956,43 @@
         <v>0</v>
       </c>
       <c r="BT31">
-        <f>F31+E31*2+D31*4+C31*8+B31*16+A31*32</f>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="BU31">
-        <f>M31+L31*2+K31*4+J31*8+I31*16+H31*32</f>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="BV31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>63</v>
       </c>
       <c r="BW31">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="BX31">
         <f>AH31+AG31*2+AF31*4+AE31*8+AD31*16+AC31*32</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BY31">
-        <f>AO31+AN31*2+AM31*4+AL31*8+AK31*16+AJ31*32</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BZ31">
-        <f t="shared" si="28"/>
+        <f>AV31+AU31*2+AT31*4+AS31*8+AR31*16+AQ31*32</f>
         <v>0</v>
       </c>
       <c r="CA31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>18</v>
       </c>
       <c r="CB31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CC31">
-        <f t="shared" si="31"/>
+        <f>BQ31+BP31*2+BO31*4+BN31*8+BM31*16+BL31*32</f>
         <v>0</v>
       </c>
     </row>
@@ -5801,6 +6063,24 @@
       <c r="AB32" t="s">
         <v>0</v>
       </c>
+      <c r="AC32">
+        <v>1</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>1</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
       <c r="AI32" t="s">
         <v>0</v>
       </c>
@@ -5826,43 +6106,43 @@
         <v>0</v>
       </c>
       <c r="BT32">
-        <f>F32+E32*2+D32*4+C32*8+B32*16+A32*32</f>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="BU32">
-        <f>M32+L32*2+K32*4+J32*8+I32*16+H32*32</f>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="BV32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>63</v>
       </c>
       <c r="BW32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="BX32">
         <f>AH32+AG32*2+AF32*4+AE32*8+AD32*16+AC32*32</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BY32">
-        <f>AO32+AN32*2+AM32*4+AL32*8+AK32*16+AJ32*32</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BZ32">
-        <f t="shared" si="28"/>
+        <f>AV32+AU32*2+AT32*4+AS32*8+AR32*16+AQ32*32</f>
         <v>0</v>
       </c>
       <c r="CA32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="CB32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CC32">
-        <f t="shared" si="31"/>
+        <f>BQ32+BP32*2+BO32*4+BN32*8+BM32*16+BL32*32</f>
         <v>0</v>
       </c>
     </row>
@@ -5915,6 +6195,24 @@
       <c r="AB33" t="s">
         <v>0</v>
       </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
       <c r="AI33" t="s">
         <v>0</v>
       </c>
@@ -5940,43 +6238,43 @@
         <v>0</v>
       </c>
       <c r="BT33">
-        <f>F33+E33*2+D33*4+C33*8+B33*16+A33*32</f>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="BU33">
-        <f>M33+L33*2+K33*4+J33*8+I33*16+H33*32</f>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="BV33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BW33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="BX33">
         <f>AH33+AG33*2+AF33*4+AE33*8+AD33*16+AC33*32</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BY33">
-        <f>AO33+AN33*2+AM33*4+AL33*8+AK33*16+AJ33*32</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BZ33">
-        <f t="shared" si="28"/>
+        <f>AV33+AU33*2+AT33*4+AS33*8+AR33*16+AQ33*32</f>
         <v>0</v>
       </c>
       <c r="CA33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="CB33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CC33">
-        <f t="shared" si="31"/>
+        <f>BQ33+BP33*2+BO33*4+BN33*8+BM33*16+BL33*32</f>
         <v>0</v>
       </c>
     </row>
@@ -6029,6 +6327,24 @@
       <c r="AB34" t="s">
         <v>0</v>
       </c>
+      <c r="AC34">
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34">
+        <v>1</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
       <c r="AI34" t="s">
         <v>0</v>
       </c>
@@ -6072,47 +6388,59 @@
         <v>0</v>
       </c>
       <c r="BT34">
-        <f>F34+E34*2+D34*4+C34*8+B34*16+A34*32</f>
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
       <c r="BU34">
-        <f>M34+L34*2+K34*4+J34*8+I34*16+H34*32</f>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="BV34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BW34">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="BX34">
         <f>AH34+AG34*2+AF34*4+AE34*8+AD34*16+AC34*32</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BY34">
-        <f>AO34+AN34*2+AM34*4+AL34*8+AK34*16+AJ34*32</f>
+        <f t="shared" si="32"/>
         <v>63</v>
       </c>
       <c r="BZ34">
-        <f t="shared" si="28"/>
+        <f>AV34+AU34*2+AT34*4+AS34*8+AR34*16+AQ34*32</f>
         <v>0</v>
       </c>
       <c r="CA34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="CB34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CC34">
-        <f t="shared" si="31"/>
+        <f>BQ34+BP34*2+BO34*4+BN34*8+BM34*16+BL34*32</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
       <c r="G35" t="s">
         <v>0</v>
       </c>
@@ -6186,19 +6514,19 @@
         <v>0</v>
       </c>
       <c r="BT35">
-        <f>F35+E35*2+D35*4+C35*8+B35*16+A35*32</f>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>30</v>
       </c>
       <c r="BU35">
-        <f>M35+L35*2+K35*4+J35*8+I35*16+H35*32</f>
+        <f t="shared" si="31"/>
         <v>30</v>
       </c>
       <c r="BV35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BW35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="34"/>
         <v>30</v>
       </c>
       <c r="BX35">
@@ -6206,23 +6534,23 @@
         <v>0</v>
       </c>
       <c r="BY35">
-        <f>AO35+AN35*2+AM35*4+AL35*8+AK35*16+AJ35*32</f>
+        <f t="shared" si="32"/>
         <v>63</v>
       </c>
       <c r="BZ35">
-        <f t="shared" si="28"/>
+        <f>AV35+AU35*2+AT35*4+AS35*8+AR35*16+AQ35*32</f>
         <v>0</v>
       </c>
       <c r="CA35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="CB35">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="CC35">
-        <f t="shared" si="31"/>
+        <f>BQ35+BP35*2+BO35*4+BN35*8+BM35*16+BL35*32</f>
         <v>0</v>
       </c>
     </row>
@@ -6437,69 +6765,133 @@
       <c r="BR36" t="s">
         <v>0</v>
       </c>
-      <c r="BT36" s="2"/>
-      <c r="BU36" s="2"/>
-      <c r="BV36" s="2"/>
-      <c r="BW36" s="2"/>
-      <c r="BX36" s="2"/>
-      <c r="BY36" s="2"/>
-      <c r="BZ36" s="2"/>
-      <c r="CA36" s="2"/>
+      <c r="BT36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="BW36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BX36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BY36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CA36" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="CB36" s="2"/>
       <c r="CC36" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="BT9:CC9 BT18:CC18 BT27:BY27 A1:N18">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+  <conditionalFormatting sqref="A1:F8 H1:M8 H10:M17 A10:F17">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:AB18">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="O1:AB8 O10:AB17">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O19:AB36">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+  <conditionalFormatting sqref="O19:AB26 O28:AB35">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC1:AP18">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+  <conditionalFormatting sqref="AC1:AP8 AC10:AP17">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ1:BD18">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+  <conditionalFormatting sqref="AQ1:BD8 AQ10:BD17">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ19:BD36">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+  <conditionalFormatting sqref="AQ19:BD26 AW28:BD35">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE1:BR18">
+  <conditionalFormatting sqref="BE1:BR8 BE10:BR17">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE19:BR26 BE28:BK35 BR28:BR35">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19:AP26 AI28:AP35">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:F26 H19:M26 H28:M35 A28:F35">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G8 G10:G17 G19:G26 G28:G35">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N8 N29:N35 N10:N17 N19:N26">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28:AV35">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:BR9 BT9:CC9">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:BR18 BT18:CC18">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:BR27 BT27:BY27">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:BR36">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL28:BQ35">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE19:BR36">
+  <conditionalFormatting sqref="AC28:AH35">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC19:AP36">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:N36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="BT27:CB35 G19:BD20 G22:BD27 G21:AI21 AK21:AN21 AP21:BD21 G28:AB28 AX28:BC28 AW28 BD28 AI28:AP28 BT36:BY36 CB36 BZ36:CA36" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Oric Match3/Font2.xlsx
+++ b/Oric Match3/Font2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\osdk_1_12\0- Projets\Oric\Oric Match3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB64FB4-C8C4-46EB-B0D5-34C688FF3473}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80A72B9-A48E-4A98-AD7E-46D5B98868B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{57011A31-277C-4483-A20A-2E484002B2FD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="252" xr2:uid="{57011A31-277C-4483-A20A-2E484002B2FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="41">
   <si>
     <t>=</t>
   </si>
@@ -108,31 +108,46 @@
     <t>Z</t>
   </si>
   <si>
-    <t>1</t>
+    <t>[</t>
   </si>
   <si>
-    <t>0</t>
+    <t>\</t>
   </si>
   <si>
-    <t>2</t>
+    <t>]</t>
   </si>
   <si>
-    <t>3</t>
+    <t>^</t>
   </si>
   <si>
-    <t>4</t>
+    <t>£</t>
   </si>
   <si>
-    <t>5</t>
+    <t xml:space="preserve">© </t>
   </si>
   <si>
-    <t>6</t>
+    <t>a</t>
   </si>
   <si>
-    <t>7</t>
+    <t>b</t>
   </si>
   <si>
-    <t>8</t>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -185,43 +200,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -762,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7342C52-2981-4445-94D7-AF75FB18D62B}">
   <dimension ref="A1:XFD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CE37" sqref="CE37"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AU38" sqref="AU38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,8 +779,20 @@
       <c r="BK1" t="s">
         <v>13</v>
       </c>
+      <c r="BM1">
+        <v>1</v>
+      </c>
+      <c r="BN1">
+        <v>1</v>
+      </c>
+      <c r="BO1">
+        <v>1</v>
+      </c>
+      <c r="BP1">
+        <v>1</v>
+      </c>
       <c r="BR1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="BT1">
         <f>F1+E1*2+D1*4+C1*8+B1*16+A1*32</f>
@@ -841,7 +832,7 @@
       </c>
       <c r="CC1">
         <f>BQ1+BP1*2+BO1*4+BN1*8+BM1*16+BL1*32</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="XFD1">
         <f>XDT1+XDS1*2+XDR1*4+XDQ1*8+XDP1*16+XDO1*32</f>
@@ -972,6 +963,18 @@
       <c r="BK2" t="s">
         <v>0</v>
       </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
       <c r="BR2" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1016,7 @@
       </c>
       <c r="CC2">
         <f t="shared" ref="CC2:CC8" si="9">BQ2+BP2*2+BO2*4+BN2*8+BM2*16+BL2*32</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -1158,6 +1161,18 @@
       <c r="BK3" t="s">
         <v>0</v>
       </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
       <c r="BR3" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1214,7 @@
       </c>
       <c r="CC3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -1356,6 +1371,18 @@
       <c r="BK4" t="s">
         <v>0</v>
       </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
       <c r="BR4" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1424,7 @@
       </c>
       <c r="CC4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -1560,6 +1587,18 @@
       <c r="BK5" t="s">
         <v>0</v>
       </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
       <c r="BR5" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1640,7 @@
       </c>
       <c r="CC5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -1692,6 +1731,21 @@
       <c r="BK6" t="s">
         <v>0</v>
       </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
       <c r="BR6" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1787,7 @@
       </c>
       <c r="CC6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -1854,6 +1908,18 @@
       <c r="BK7" t="s">
         <v>0</v>
       </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
       <c r="BR7" t="s">
         <v>0</v>
       </c>
@@ -1895,7 +1961,7 @@
       </c>
       <c r="CC7">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -2016,6 +2082,18 @@
       <c r="BK8" t="s">
         <v>0</v>
       </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
       <c r="BR8" t="s">
         <v>0</v>
       </c>
@@ -2057,7 +2135,7 @@
       </c>
       <c r="CC8">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -2298,7 +2376,9 @@
       <c r="CB9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="CC9" s="1"/>
+      <c r="CC9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -2314,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2329,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -2350,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK10">
         <v>1</v>
@@ -2365,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="AP10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR10">
         <v>1</v>
@@ -2380,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="AW10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2401,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="BD10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF10">
         <v>1</v>
@@ -2416,10 +2496,22 @@
         <v>1</v>
       </c>
       <c r="BK10" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="BL10">
+        <v>1</v>
+      </c>
+      <c r="BM10">
+        <v>1</v>
+      </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
       </c>
       <c r="BR10" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="BT10">
         <f>F10+E10*2+D10*4+C10*8+B10*16+A10*32</f>
@@ -2459,7 +2551,7 @@
       </c>
       <c r="CC10">
         <f>BQ10+BP10*2+BO10*4+BN10*8+BM10*16+BL10*32</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -2580,6 +2672,18 @@
       <c r="BK11" t="s">
         <v>0</v>
       </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>1</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
       <c r="BR11" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2725,7 @@
       </c>
       <c r="CC11">
         <f t="shared" ref="CC11:CC17" si="19">BQ11+BP11*2+BO11*4+BN11*8+BM11*16+BL11*32</f>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -2742,6 +2846,21 @@
       <c r="BK12" t="s">
         <v>0</v>
       </c>
+      <c r="BL12">
+        <v>1</v>
+      </c>
+      <c r="BM12">
+        <v>1</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
+        <v>1</v>
+      </c>
       <c r="BR12" t="s">
         <v>0</v>
       </c>
@@ -2783,7 +2902,7 @@
       </c>
       <c r="CC12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -2934,6 +3053,18 @@
       <c r="BK13" t="s">
         <v>0</v>
       </c>
+      <c r="BM13">
+        <v>1</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>1</v>
+      </c>
       <c r="BR13" t="s">
         <v>0</v>
       </c>
@@ -2975,7 +3106,7 @@
       </c>
       <c r="CC13">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -3126,6 +3257,18 @@
       <c r="BK14" t="s">
         <v>0</v>
       </c>
+      <c r="BM14">
+        <v>1</v>
+      </c>
+      <c r="BN14">
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
       <c r="BR14" t="s">
         <v>0</v>
       </c>
@@ -3167,7 +3310,7 @@
       </c>
       <c r="CC14">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -3306,6 +3449,18 @@
       <c r="BK15" t="s">
         <v>0</v>
       </c>
+      <c r="BM15">
+        <v>1</v>
+      </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
       <c r="BR15" t="s">
         <v>0</v>
       </c>
@@ -3347,7 +3502,7 @@
       </c>
       <c r="CC15">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:81 16384:16384" x14ac:dyDescent="0.25">
@@ -3474,6 +3629,18 @@
       <c r="BK16" t="s">
         <v>0</v>
       </c>
+      <c r="BM16">
+        <v>1</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>1</v>
+      </c>
       <c r="BR16" t="s">
         <v>0</v>
       </c>
@@ -3515,7 +3682,7 @@
       </c>
       <c r="CC16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.25">
@@ -3576,6 +3743,18 @@
       <c r="BK17" t="s">
         <v>0</v>
       </c>
+      <c r="BM17">
+        <v>1</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>1</v>
+      </c>
       <c r="BR17" t="s">
         <v>0</v>
       </c>
@@ -3617,7 +3796,7 @@
       </c>
       <c r="CC17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:81" x14ac:dyDescent="0.25">
@@ -3832,33 +4011,35 @@
         <v>0</v>
       </c>
       <c r="BT18" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BU18" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BV18" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BW18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BY18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BZ18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CB18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="CC18" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="CC18" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.25">
       <c r="B19">
@@ -3874,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3889,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -3904,13 +4085,13 @@
         <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK19">
         <v>1</v>
@@ -3925,7 +4106,7 @@
         <v>1</v>
       </c>
       <c r="AP19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU19">
         <v>1</v>
@@ -3933,8 +4114,8 @@
       <c r="AV19">
         <v>1</v>
       </c>
-      <c r="AW19" t="s">
-        <v>26</v>
+      <c r="AW19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="AX19">
         <v>1</v>
@@ -3957,11 +4138,11 @@
       <c r="BF19">
         <v>1</v>
       </c>
-      <c r="BK19" t="s">
-        <v>0</v>
+      <c r="BK19" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="BR19" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BT19">
         <f t="shared" ref="BT19:BT26" si="20">F19+E19*2+D19*4+C19*8+B19*16+A19*32</f>
@@ -4992,6 +5173,21 @@
       <c r="BK25" t="s">
         <v>0</v>
       </c>
+      <c r="BL25">
+        <v>1</v>
+      </c>
+      <c r="BM25">
+        <v>1</v>
+      </c>
+      <c r="BN25">
+        <v>1</v>
+      </c>
+      <c r="BO25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
+        <v>1</v>
+      </c>
       <c r="BR25" t="s">
         <v>0</v>
       </c>
@@ -5033,7 +5229,7 @@
       </c>
       <c r="CC25">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:81" x14ac:dyDescent="0.25">
@@ -5130,6 +5326,21 @@
       <c r="BK26" t="s">
         <v>0</v>
       </c>
+      <c r="BL26">
+        <v>1</v>
+      </c>
+      <c r="BM26">
+        <v>1</v>
+      </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
+        <v>1</v>
+      </c>
       <c r="BR26" t="s">
         <v>0</v>
       </c>
@@ -5171,7 +5382,7 @@
       </c>
       <c r="CC26">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.25">
@@ -5386,33 +5597,35 @@
         <v>0</v>
       </c>
       <c r="BT27" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="BU27" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="BV27" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="BW27" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BY27" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BZ27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CA27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CB27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="CC27" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="CC27" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.25">
       <c r="B28">
@@ -5431,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -5449,10 +5662,10 @@
         <v>1</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -5467,13 +5680,13 @@
         <v>1</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AI28" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP28" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -5494,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="AW28" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AX28">
         <v>1</v>
@@ -5509,13 +5722,28 @@
         <v>1</v>
       </c>
       <c r="BD28" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="BK28" t="s">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="BL28">
+        <v>1</v>
+      </c>
+      <c r="BM28">
+        <v>1</v>
+      </c>
+      <c r="BN28">
+        <v>1</v>
+      </c>
+      <c r="BO28">
+        <v>1</v>
+      </c>
+      <c r="BP28">
+        <v>1</v>
       </c>
       <c r="BR28" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BT28">
         <f t="shared" ref="BT28:BT35" si="30">F28+E28*2+D28*4+C28*8+B28*16+A28*32</f>
@@ -5534,15 +5762,15 @@
         <v>30</v>
       </c>
       <c r="BX28">
-        <f>AH28+AG28*2+AF28*4+AE28*8+AD28*16+AC28*32</f>
+        <f t="shared" ref="BX28:BX35" si="32">AH28+AG28*2+AF28*4+AE28*8+AD28*16+AC28*32</f>
         <v>0</v>
       </c>
       <c r="BY28">
-        <f t="shared" ref="BY28:BY35" si="32">AO28+AN28*2+AM28*4+AL28*8+AK28*16+AJ28*32</f>
+        <f t="shared" ref="BY28:BY35" si="33">AO28+AN28*2+AM28*4+AL28*8+AK28*16+AJ28*32</f>
         <v>0</v>
       </c>
       <c r="BZ28">
-        <f>AV28+AU28*2+AT28*4+AS28*8+AR28*16+AQ28*32</f>
+        <f t="shared" ref="BZ28:BZ35" si="34">AV28+AU28*2+AT28*4+AS28*8+AR28*16+AQ28*32</f>
         <v>63</v>
       </c>
       <c r="CA28">
@@ -5554,8 +5782,8 @@
         <v>0</v>
       </c>
       <c r="CC28">
-        <f>BQ28+BP28*2+BO28*4+BN28*8+BM28*16+BL28*32</f>
-        <v>0</v>
+        <f t="shared" ref="CC28:CC35" si="35">BQ28+BP28*2+BO28*4+BN28*8+BM28*16+BL28*32</f>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:81" x14ac:dyDescent="0.25">
@@ -5670,6 +5898,21 @@
       <c r="BK29" t="s">
         <v>0</v>
       </c>
+      <c r="BL29">
+        <v>1</v>
+      </c>
+      <c r="BM29">
+        <v>1</v>
+      </c>
+      <c r="BN29">
+        <v>1</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>1</v>
+      </c>
       <c r="BR29" t="s">
         <v>0</v>
       </c>
@@ -5682,36 +5925,36 @@
         <v>62</v>
       </c>
       <c r="BV29">
-        <f t="shared" ref="BV29:BV35" si="33">T29+S29*2+R29*4+Q29*8+P29*16+O29*32</f>
+        <f t="shared" ref="BV29:BV35" si="36">T29+S29*2+R29*4+Q29*8+P29*16+O29*32</f>
         <v>63</v>
       </c>
       <c r="BW29">
-        <f t="shared" ref="BW29:BW35" si="34">AA29+Z29*2+Y29*4+X29*8+W29*16+V29*32</f>
+        <f t="shared" ref="BW29:BW35" si="37">AA29+Z29*2+Y29*4+X29*8+W29*16+V29*32</f>
         <v>30</v>
       </c>
       <c r="BX29">
-        <f>AH29+AG29*2+AF29*4+AE29*8+AD29*16+AC29*32</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BY29">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="BZ29">
-        <f>AV29+AU29*2+AT29*4+AS29*8+AR29*16+AQ29*32</f>
+        <f t="shared" si="34"/>
         <v>63</v>
       </c>
       <c r="CA29">
-        <f t="shared" ref="CA29:CA35" si="35">BC29+BB29*2+BA29*4+AZ29*8+AY29*16+AX29*32</f>
+        <f t="shared" ref="CA29:CA35" si="38">BC29+BB29*2+BA29*4+AZ29*8+AY29*16+AX29*32</f>
         <v>18</v>
       </c>
       <c r="CB29">
-        <f t="shared" ref="CB29:CB35" si="36">BJ29+BI29*2+BH29*4+BG29*8+BF29*16+BE29*32</f>
+        <f t="shared" ref="CB29:CB35" si="39">BJ29+BI29*2+BH29*4+BG29*8+BF29*16+BE29*32</f>
         <v>0</v>
       </c>
       <c r="CC29">
-        <f>BQ29+BP29*2+BO29*4+BN29*8+BM29*16+BL29*32</f>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:81" x14ac:dyDescent="0.25">
@@ -5814,35 +6057,35 @@
         <v>30</v>
       </c>
       <c r="BV30">
+        <f t="shared" si="36"/>
+        <v>63</v>
+      </c>
+      <c r="BW30">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+      <c r="BX30">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BY30">
         <f t="shared" si="33"/>
-        <v>63</v>
-      </c>
-      <c r="BW30">
+        <v>0</v>
+      </c>
+      <c r="BZ30">
         <f t="shared" si="34"/>
-        <v>30</v>
-      </c>
-      <c r="BX30">
-        <f>AH30+AG30*2+AF30*4+AE30*8+AD30*16+AC30*32</f>
-        <v>0</v>
-      </c>
-      <c r="BY30">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BZ30">
-        <f>AV30+AU30*2+AT30*4+AS30*8+AR30*16+AQ30*32</f>
         <v>0</v>
       </c>
       <c r="CA30">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="CB30">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CC30">
         <f t="shared" si="35"/>
-        <v>18</v>
-      </c>
-      <c r="CB30">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CC30">
-        <f>BQ30+BP30*2+BO30*4+BN30*8+BM30*16+BL30*32</f>
         <v>0</v>
       </c>
     </row>
@@ -5964,35 +6207,35 @@
         <v>30</v>
       </c>
       <c r="BV31">
+        <f t="shared" si="36"/>
+        <v>63</v>
+      </c>
+      <c r="BW31">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+      <c r="BX31">
+        <f t="shared" si="32"/>
+        <v>63</v>
+      </c>
+      <c r="BY31">
         <f t="shared" si="33"/>
-        <v>63</v>
-      </c>
-      <c r="BW31">
+        <v>0</v>
+      </c>
+      <c r="BZ31">
         <f t="shared" si="34"/>
-        <v>30</v>
-      </c>
-      <c r="BX31">
-        <f>AH31+AG31*2+AF31*4+AE31*8+AD31*16+AC31*32</f>
-        <v>63</v>
-      </c>
-      <c r="BY31">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BZ31">
-        <f>AV31+AU31*2+AT31*4+AS31*8+AR31*16+AQ31*32</f>
         <v>0</v>
       </c>
       <c r="CA31">
+        <f t="shared" si="38"/>
+        <v>18</v>
+      </c>
+      <c r="CB31">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CC31">
         <f t="shared" si="35"/>
-        <v>18</v>
-      </c>
-      <c r="CB31">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CC31">
-        <f>BQ31+BP31*2+BO31*4+BN31*8+BM31*16+BL31*32</f>
         <v>0</v>
       </c>
     </row>
@@ -6114,35 +6357,35 @@
         <v>30</v>
       </c>
       <c r="BV32">
+        <f t="shared" si="36"/>
+        <v>63</v>
+      </c>
+      <c r="BW32">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+      <c r="BX32">
+        <f t="shared" si="32"/>
+        <v>63</v>
+      </c>
+      <c r="BY32">
         <f t="shared" si="33"/>
-        <v>63</v>
-      </c>
-      <c r="BW32">
+        <v>0</v>
+      </c>
+      <c r="BZ32">
         <f t="shared" si="34"/>
-        <v>30</v>
-      </c>
-      <c r="BX32">
-        <f>AH32+AG32*2+AF32*4+AE32*8+AD32*16+AC32*32</f>
-        <v>63</v>
-      </c>
-      <c r="BY32">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BZ32">
-        <f>AV32+AU32*2+AT32*4+AS32*8+AR32*16+AQ32*32</f>
         <v>0</v>
       </c>
       <c r="CA32">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="CB32">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CC32">
         <f t="shared" si="35"/>
-        <v>12</v>
-      </c>
-      <c r="CB32">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CC32">
-        <f>BQ32+BP32*2+BO32*4+BN32*8+BM32*16+BL32*32</f>
         <v>0</v>
       </c>
     </row>
@@ -6246,35 +6489,35 @@
         <v>30</v>
       </c>
       <c r="BV33">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BW33">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+      <c r="BX33">
+        <f t="shared" si="32"/>
+        <v>63</v>
+      </c>
+      <c r="BY33">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="BW33">
+      <c r="BZ33">
         <f t="shared" si="34"/>
-        <v>30</v>
-      </c>
-      <c r="BX33">
-        <f>AH33+AG33*2+AF33*4+AE33*8+AD33*16+AC33*32</f>
-        <v>63</v>
-      </c>
-      <c r="BY33">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="BZ33">
-        <f>AV33+AU33*2+AT33*4+AS33*8+AR33*16+AQ33*32</f>
         <v>0</v>
       </c>
       <c r="CA33">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="CB33">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CC33">
         <f t="shared" si="35"/>
-        <v>12</v>
-      </c>
-      <c r="CB33">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CC33">
-        <f>BQ33+BP33*2+BO33*4+BN33*8+BM33*16+BL33*32</f>
         <v>0</v>
       </c>
     </row>
@@ -6396,35 +6639,35 @@
         <v>30</v>
       </c>
       <c r="BV34">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BW34">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>30</v>
       </c>
       <c r="BX34">
-        <f>AH34+AG34*2+AF34*4+AE34*8+AD34*16+AC34*32</f>
-        <v>63</v>
-      </c>
-      <c r="BY34">
         <f t="shared" si="32"/>
         <v>63</v>
       </c>
+      <c r="BY34">
+        <f t="shared" si="33"/>
+        <v>63</v>
+      </c>
       <c r="BZ34">
-        <f>AV34+AU34*2+AT34*4+AS34*8+AR34*16+AQ34*32</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="CA34">
+        <f t="shared" si="38"/>
+        <v>12</v>
+      </c>
+      <c r="CB34">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CC34">
         <f t="shared" si="35"/>
-        <v>12</v>
-      </c>
-      <c r="CB34">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CC34">
-        <f>BQ34+BP34*2+BO34*4+BN34*8+BM34*16+BL34*32</f>
         <v>0</v>
       </c>
     </row>
@@ -6522,35 +6765,35 @@
         <v>30</v>
       </c>
       <c r="BV35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="BW35">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+      <c r="BX35">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BY35">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BW35">
+        <v>63</v>
+      </c>
+      <c r="BZ35">
         <f t="shared" si="34"/>
-        <v>30</v>
-      </c>
-      <c r="BX35">
-        <f>AH35+AG35*2+AF35*4+AE35*8+AD35*16+AC35*32</f>
-        <v>0</v>
-      </c>
-      <c r="BY35">
-        <f t="shared" si="32"/>
-        <v>63</v>
-      </c>
-      <c r="BZ35">
-        <f>AV35+AU35*2+AT35*4+AS35*8+AR35*16+AQ35*32</f>
         <v>0</v>
       </c>
       <c r="CA35">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CB35">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CC35">
         <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="CB35">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="CC35">
-        <f>BQ35+BP35*2+BO35*4+BN35*8+BM35*16+BL35*32</f>
         <v>0</v>
       </c>
     </row>
@@ -6766,132 +7009,136 @@
         <v>0</v>
       </c>
       <c r="BT36" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BU36" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BV36" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="BW36" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BX36" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BY36" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BZ36" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CA36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="CB36" s="2"/>
-      <c r="CC36" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="CB36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CC36" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F8 H1:M8 H10:M17 A10:F17">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:AB8 O10:AB17">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:AB26 O28:AB35">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AP8 AC10:AP17">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ1:BD8 AQ10:BD17">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ19:BD26 AW28:BD35">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BR8 BE10:BR17">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE19:BR26 BE28:BK35 BR28:BR35">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC19:AP26 AI28:AP35">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:F26 H19:M26 H28:M35 A28:F35">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G8 G10:G17 G19:G26 G28:G35">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N8 N29:N35 N10:N17 N19:N26">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AV35">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:BR9 BT9:CC9">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:BR18 BT18:CC18">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:BR27 BT27:BY27">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36:BR36">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28:BQ35">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC28:AH35">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="BT27:CB35 G19:BD20 G22:BD27 G21:AI21 AK21:AN21 AP21:BD21 G28:AB28 AX28:BC28 AW28 BD28 AI28:AP28 BT36:BY36 CB36 BZ36:CA36" numberStoredAsText="1"/>
+    <ignoredError sqref="BT28:CB35 G20:BD20 G22:BD27 G21:AI21 AK21:AN21 AP21:BD21 H28:M28 AX28:BC28 AJ28:AO28 H19:M19 O19:T19 V19:AA19 AC19:AH19 AJ19:AO19 AQ19:AV19 AX19:BC19 O28:T28 V28:AA28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>